--- a/biology/Botanique/Laxmanniaceae/Laxmanniaceae.xlsx
+++ b/biology/Botanique/Laxmanniaceae/Laxmanniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Laxmanniacées regroupe des plantes monocotylédones.
 Prédominants en Australie, les membres de cette famille se rencontrent aussi à Madagascar, en Inde, et en Amérique du Sud.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Laxmannia (en) qui pourrait venir du latin lax, relâcher, et mani, folie[1] mais a plus probablement été donné en l'honneur du naturaliste suédois Erich Laxmann[2], botaniste finno-suédo-russe, explorateur en Sibérie, professeur à Saint-Pétersbourg. La paternité du nom a été attribuée à Robert Brown qui n'expliqua pas la raison de ce choix[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Laxmannia (en) qui pourrait venir du latin lax, relâcher, et mani, folie mais a plus probablement été donné en l'honneur du naturaliste suédois Erich Laxmann, botaniste finno-suédo-russe, explorateur en Sibérie, professeur à Saint-Pétersbourg. La paternité du nom a été attribuée à Robert Brown qui n'expliqua pas la raison de ce choix,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lomandra insularis est un arbuste endémique de Nouvelle-Calédonie, ses feuilles en rubans ondulés sont disposées en rosettes à l'extrémité des tiges, ses petites fleurs blanches sont rassemblées en inflorescences denses.
 </t>
@@ -574,11 +590,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En classification classique de Cronquist (1981)[5], cette famille n'existe pas et ses espèces sont assignées entre autres aux Liliaceae.
-En classification phylogénétique APG II (2003)[6] elle est optionnelle : ces plantes peuvent être aussi incluses dans les Asparagacées.
-En classification phylogénétique APG III (2009)[7] cette famille est invalide et ses genres sont incorporés dans la famille Asparagaceae (sous-famille Lomandroideae).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En classification classique de Cronquist (1981), cette famille n'existe pas et ses espèces sont assignées entre autres aux Liliaceae.
+En classification phylogénétique APG II (2003) elle est optionnelle : ces plantes peuvent être aussi incluses dans les Asparagacées.
+En classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille Asparagaceae (sous-famille Lomandroideae).
 Avant qu'elle ne soit invalidée la famille était divisée en 2 sous-familles, les Laxmannioidées et les Lomandroidées avec 178 espèces réparties en une quinzaine de genres.
 Les Laxmannioidées renfermaient entre autres les genres Bottionea, Cordyline, Laxmannia, Thysanotus et Trichopetalum. Trichopetalum chosmalensis, fut découverte en Argentine et T. plumosum au Chili.
 Les Lomandroidés comprenaient les genres Acanthocarpus, Baxteria, Chamaexeros, Lomandra, Romnalda et Xerolirion.</t>
@@ -609,7 +627,9 @@
           <t>Genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Acanthocarpus Lehm.
 Arthropodium (en) R.Br.
